--- a/code/vocab_csv/laws-authorities.xlsx
+++ b/code/vocab_csv/laws-authorities.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="527">
   <si>
     <t>Term</t>
   </si>
@@ -139,7 +139,7 @@
     <t>European Data Protection Supervisor</t>
   </si>
   <si>
-    <t>dpv:Authority,dpv:DataProtectionAuthority,eu-gdpr:DataProtectionAuthority</t>
+    <t>eu-gdpr:DataProtectionAuthority</t>
   </si>
   <si>
     <t>https://edps.europa.eu/</t>
@@ -581,9 +581,6 @@
     <t>The Federal Commissioner for Data Protection and Freedom of Information</t>
   </si>
   <si>
-    <t>dpv:Authority,dpv:DataProtectionAuthority</t>
-  </si>
-  <si>
     <t>http://www.bfdi.bund.de/</t>
   </si>
   <si>
@@ -953,7 +950,7 @@
     <t>Information Commissioner's Office (ICO)</t>
   </si>
   <si>
-    <t>dpv:DataProtectionAuthority,dpv:Authority</t>
+    <t>dpv:DataProtectionAuthority</t>
   </si>
   <si>
     <t>https://ico.org.uk/</t>
@@ -1287,9 +1284,6 @@
   </si>
   <si>
     <t>Austrian Data Protection Authority</t>
-  </si>
-  <si>
-    <t>dpv:DataProtectionAuthority</t>
   </si>
   <si>
     <t>loc:AT</t>
@@ -1737,11 +1731,6 @@
       <name val="&quot;Liberation Sans&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
@@ -1762,6 +1751,11 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1952,18 +1946,18 @@
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3344,17 +3338,17 @@
       <formula>$J17="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:AA11">
+  <conditionalFormatting sqref="A11:B11 C11:C12 D11:AA11">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>$L11="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:AA11">
+  <conditionalFormatting sqref="A11:B11 C11:C12 D11:AA11">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula>$L11="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:AA11">
+  <conditionalFormatting sqref="A11:B11 C11:C12 D11:AA11">
     <cfRule type="expression" dxfId="2" priority="9">
       <formula>$L11="changed"</formula>
     </cfRule>
@@ -3999,869 +3993,869 @@
       <c r="B22" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>181</v>
+      <c r="C22" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="37" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
+      <c r="M22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
     </row>
     <row r="23">
       <c r="A23" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>181</v>
+      <c r="C23" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
+      <c r="M23" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
     </row>
     <row r="24">
       <c r="A24" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>181</v>
+      <c r="C24" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="35">
+      <c r="I24" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="37" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
+      <c r="M24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
     </row>
     <row r="25">
       <c r="A25" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>181</v>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="35">
+      <c r="I25" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="37" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
+      <c r="M25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
     </row>
     <row r="26">
       <c r="A26" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>181</v>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>198</v>
+      <c r="E26" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="35">
+        <v>194</v>
+      </c>
+      <c r="I26" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="37" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
+      <c r="M26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
     </row>
     <row r="27">
       <c r="A27" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>181</v>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="37" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
+      <c r="M27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
     </row>
     <row r="28">
       <c r="A28" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>181</v>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="37" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M28" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
+      <c r="M28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
     </row>
     <row r="29">
       <c r="A29" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>181</v>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="35">
+      <c r="I29" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="37" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="M29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
     </row>
     <row r="30">
       <c r="A30" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>181</v>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="37" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
+      <c r="M30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>181</v>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="37" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
+      <c r="M31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
     </row>
     <row r="32">
       <c r="A32" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>181</v>
+      <c r="C32" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="37" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
+      <c r="M32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
     </row>
     <row r="33">
       <c r="A33" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="C33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="35">
+      <c r="I33" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="37" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="M33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
     </row>
     <row r="34">
       <c r="A34" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>181</v>
+      <c r="C34" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" s="35">
+      <c r="I34" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="37" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M34" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
+      <c r="M34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>181</v>
+      <c r="C35" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="35">
+      <c r="I35" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="J35" s="35"/>
+      <c r="K35" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M35" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
+      <c r="M35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>181</v>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" s="35">
+      <c r="I36" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="37" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M36" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
+      <c r="M36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
     </row>
     <row r="37">
       <c r="A37" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>181</v>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="35">
+      <c r="I37" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="37" t="s">
+      <c r="J37" s="35"/>
+      <c r="K37" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M37" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
+      <c r="M37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
     </row>
     <row r="38">
       <c r="A38" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>181</v>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="I38" s="35">
+      <c r="I38" s="34">
         <v>44650.0</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="37" t="s">
+      <c r="J38" s="35"/>
+      <c r="K38" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M38" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
+      <c r="M38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
     </row>
     <row r="40">
       <c r="A40" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58">
@@ -4872,160 +4866,175 @@
     </row>
     <row r="59">
       <c r="A59" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C22:C38">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$L22="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C38">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$L22="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C38">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$L22="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A22:V38 A58:C74">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H22="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:V38 A58:C74">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$H22="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:V38 A58:C74">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$H22="changed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W21 A39:W140">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$I2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W21 A39:W140">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$I2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W21 A39:W140">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$I2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5197,19 +5206,19 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>301</v>
       </c>
       <c r="G3" s="18">
         <v>43245.0</v>
@@ -5241,10 +5250,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="18">
         <v>43524.0</v>
@@ -5266,118 +5275,133 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="37"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="37"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="F7" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="I7" s="35">
+      <c r="G7" s="36"/>
+      <c r="I7" s="34">
         <v>44762.0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H7="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H7="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H7="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:X145">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$J2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X145">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$J2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X145">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$J2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5470,19 +5494,19 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="G3" s="12">
         <v>43831.0</v>
@@ -5502,19 +5526,19 @@
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="G4" s="12">
         <v>44927.0</v>
@@ -5534,22 +5558,22 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="44" t="s">
         <v>317</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>318</v>
       </c>
       <c r="I5" s="18">
         <v>44887.0</v>
@@ -5558,24 +5582,24 @@
         <v>18</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>322</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>323</v>
       </c>
       <c r="G6" s="18">
         <v>44927.0</v>
@@ -5587,24 +5611,24 @@
         <v>18</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>327</v>
       </c>
       <c r="G7" s="18">
         <v>45298.0</v>
@@ -5616,24 +5640,24 @@
         <v>18</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>329</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="G8" s="18">
         <v>44933.0</v>
@@ -5645,24 +5669,24 @@
         <v>18</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="G9" s="18">
         <v>44206.0</v>
@@ -5674,7 +5698,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
@@ -5684,22 +5708,22 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="I12" s="18">
         <v>44887.0</v>
@@ -5708,27 +5732,27 @@
         <v>18</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>343</v>
       </c>
       <c r="I13" s="18">
         <v>44888.0</v>
@@ -5737,27 +5761,27 @@
         <v>18</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>347</v>
       </c>
       <c r="I14" s="18">
         <v>44888.0</v>
@@ -5766,27 +5790,27 @@
         <v>18</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="I15" s="18">
         <v>44888.0</v>
@@ -5795,27 +5819,27 @@
         <v>18</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="I16" s="18">
         <v>44888.0</v>
@@ -5824,27 +5848,27 @@
         <v>18</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="I17" s="18">
         <v>45273.0</v>
@@ -5854,33 +5878,48 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:X16">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H12="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H12="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H12="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:B16 C12:C17 D12:X16">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$J12="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:X16">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A12:B16 C12:C17 D12:X16">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$J12="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:X16">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A12:B16 C12:C17 D12:X16">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$J12="changed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X11 A17:X149">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$J2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X11 A17:X149">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$J2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X11 A17:X149">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$J2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5986,19 +6025,19 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="G3" s="22">
         <v>43244.0</v>
@@ -6027,22 +6066,22 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="45">
@@ -6053,22 +6092,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="H7" s="18"/>
       <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
       <c r="H8" s="18"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="37"/>
+      <c r="C9" s="36"/>
       <c r="H9" s="18"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="37"/>
+      <c r="C10" s="36"/>
       <c r="H10" s="18"/>
       <c r="K10" s="24"/>
     </row>
@@ -6076,33 +6115,48 @@
       <c r="H11" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H6="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H6="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H6="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$J6="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$J6="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$J6="changed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$J2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$J2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$J2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6191,19 +6245,19 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>369</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>370</v>
       </c>
       <c r="G3" s="22">
         <v>45149.0</v>
@@ -6232,19 +6286,19 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>373</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="45">
@@ -6255,22 +6309,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="H7" s="18"/>
       <c r="K7" s="24"/>
     </row>
     <row r="8">
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
       <c r="H8" s="18"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9">
-      <c r="C9" s="37"/>
+      <c r="C9" s="36"/>
       <c r="H9" s="18"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10">
-      <c r="C10" s="37"/>
+      <c r="C10" s="36"/>
       <c r="H10" s="18"/>
       <c r="K10" s="24"/>
     </row>
@@ -6278,33 +6332,48 @@
       <c r="H11" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H6="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H6="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H6="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$J6="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$J6="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:X10">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$J6="changed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$J2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$J2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:X5 A11:X143">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$J2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6339,22 +6408,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>376</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>377</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>8</v>
@@ -6374,7 +6443,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6389,13 +6458,13 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" s="12">
         <v>43789.0</v>
@@ -6435,13 +6504,13 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -6479,13 +6548,13 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6523,13 +6592,13 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -6567,13 +6636,13 @@
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -6611,13 +6680,13 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -6655,13 +6724,13 @@
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -6699,13 +6768,13 @@
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -6743,13 +6812,13 @@
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6787,13 +6856,13 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -6831,13 +6900,13 @@
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -6875,13 +6944,13 @@
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -6919,13 +6988,13 @@
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -6963,13 +7032,13 @@
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -7007,13 +7076,13 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -7051,13 +7120,13 @@
     </row>
     <row r="18">
       <c r="A18" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -7095,13 +7164,13 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -7152,7 +7221,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="13"/>
@@ -7211,7 +7280,7 @@
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="13"/>
@@ -7228,7 +7297,7 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24" s="15"/>
       <c r="D24" s="18"/>
@@ -7243,7 +7312,7 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" s="15"/>
       <c r="D25" s="18"/>
@@ -7258,7 +7327,7 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" s="15"/>
       <c r="D26" s="18"/>
@@ -7273,7 +7342,7 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27" s="15"/>
       <c r="D27" s="18"/>
@@ -7299,7 +7368,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="15"/>
       <c r="D29" s="18"/>
@@ -7312,19 +7381,19 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="18">
         <v>43245.0</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>301</v>
       </c>
       <c r="H30" s="14">
         <v>44762.0</v>
@@ -7333,7 +7402,7 @@
         <v>44848.0</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>19</v>
@@ -7344,7 +7413,7 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>14</v>
@@ -7353,10 +7422,10 @@
         <v>43524.0</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H31" s="14">
         <v>44762.0</v>
@@ -7365,7 +7434,7 @@
         <v>44848.0</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>19</v>
@@ -7376,7 +7445,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="13"/>
@@ -7391,10 +7460,10 @@
     </row>
     <row r="34">
       <c r="A34" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="12">
@@ -7402,10 +7471,10 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="H34" s="14">
         <v>44650.0</v>
@@ -7435,10 +7504,10 @@
     </row>
     <row r="35">
       <c r="A35" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="12">
@@ -7446,10 +7515,10 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="H35" s="14">
         <v>44650.0</v>
@@ -7479,21 +7548,21 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>317</v>
       </c>
       <c r="H36" s="18">
         <v>44887.0</v>
@@ -7503,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -7521,10 +7590,10 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="18">
@@ -7532,10 +7601,10 @@
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>322</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>323</v>
       </c>
       <c r="H37" s="18">
         <v>44888.0</v>
@@ -7545,7 +7614,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
@@ -7563,10 +7632,10 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="18">
@@ -7574,10 +7643,10 @@
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>327</v>
       </c>
       <c r="H38" s="14">
         <v>44888.0</v>
@@ -7587,7 +7656,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
@@ -7605,10 +7674,10 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="18">
@@ -7616,10 +7685,10 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="H39" s="14">
         <v>44888.0</v>
@@ -7629,7 +7698,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
@@ -7647,10 +7716,10 @@
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="18">
@@ -7658,10 +7727,10 @@
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="H40" s="14">
         <v>44888.0</v>
@@ -7671,7 +7740,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -7689,1381 +7758,1381 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="33" t="s">
+      <c r="F44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="H44" s="35">
+      <c r="H44" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="37" t="s">
+      <c r="I44" s="35"/>
+      <c r="J44" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
+      <c r="L44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
     </row>
     <row r="45">
       <c r="A45" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="F45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="H45" s="35">
+      <c r="H45" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="37" t="s">
+      <c r="I45" s="35"/>
+      <c r="J45" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
+      <c r="L45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
     </row>
     <row r="46">
       <c r="A46" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>424</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>426</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="H46" s="35">
+      <c r="G46" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="37" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
+      <c r="L46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
     </row>
     <row r="47">
       <c r="A47" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>428</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>430</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H47" s="34">
+        <v>44650.0</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="H47" s="35">
-        <v>44650.0</v>
-      </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="37" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="H48" s="34">
+        <v>45093.0</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="H48" s="35">
-        <v>45093.0</v>
-      </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
     </row>
     <row r="49">
       <c r="A49" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>436</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>438</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="H49" s="35">
+      <c r="G49" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="H49" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="37" t="s">
+      <c r="I49" s="35"/>
+      <c r="J49" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
+      <c r="L49" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
     </row>
     <row r="50">
       <c r="A50" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>440</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>442</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="H50" s="35">
+      <c r="G50" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="H50" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="37" t="s">
+      <c r="I50" s="35"/>
+      <c r="J50" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
+      <c r="L50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
     </row>
     <row r="51">
       <c r="A51" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>444</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>446</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="H51" s="35">
+      <c r="G51" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="H51" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="37" t="s">
+      <c r="I51" s="35"/>
+      <c r="J51" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
+      <c r="L51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>450</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="H52" s="35">
+      <c r="G52" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="H52" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="37" t="s">
+      <c r="I52" s="35"/>
+      <c r="J52" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
+      <c r="L52" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
     </row>
     <row r="53">
       <c r="A53" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>454</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="H53" s="35">
+      <c r="G53" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="H53" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="37" t="s">
+      <c r="I53" s="35"/>
+      <c r="J53" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
+      <c r="L53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
     </row>
     <row r="54">
       <c r="A54" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>456</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>458</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="H54" s="35">
+      <c r="G54" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="H54" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="37" t="s">
+      <c r="I54" s="35"/>
+      <c r="J54" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
+      <c r="L54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>460</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>462</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="H55" s="35">
+      <c r="G55" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="H55" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="37" t="s">
+      <c r="I55" s="35"/>
+      <c r="J55" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L55" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
+      <c r="L55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
     </row>
     <row r="56">
       <c r="A56" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>464</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>466</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="H56" s="35">
+      <c r="G56" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="H56" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="37" t="s">
+      <c r="I56" s="35"/>
+      <c r="J56" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
+      <c r="L56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
     </row>
     <row r="57">
       <c r="A57" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>364</v>
-      </c>
       <c r="C57" s="50"/>
-      <c r="D57" s="33" t="s">
-        <v>417</v>
+      <c r="D57" s="38" t="s">
+        <v>304</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F57" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="H57" s="34">
+        <v>44650.0</v>
+      </c>
+      <c r="I57" s="35"/>
+      <c r="J57" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="H57" s="35">
-        <v>44650.0</v>
-      </c>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="33" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E58" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="F58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>472</v>
-      </c>
-      <c r="H58" s="35">
+      <c r="H58" s="34">
         <v>45093.0</v>
       </c>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
     </row>
     <row r="59">
       <c r="A59" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C59" s="50"/>
+      <c r="D59" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" s="32" t="s">
         <v>473</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>475</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="H59" s="34">
+        <v>44650.0</v>
+      </c>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="H59" s="35">
-        <v>44650.0</v>
-      </c>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="33" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="F60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="H60" s="35">
+      <c r="H60" s="34">
         <v>45093.0</v>
       </c>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
     </row>
     <row r="61">
       <c r="A61" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="32" t="s">
         <v>481</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>483</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="H61" s="35">
+      <c r="G61" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="H61" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="37" t="s">
+      <c r="I61" s="35"/>
+      <c r="J61" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
+      <c r="L61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
     </row>
     <row r="62">
       <c r="A62" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C62" s="50"/>
+      <c r="D62" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>485</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>487</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="H62" s="35">
+      <c r="G62" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H62" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="37" t="s">
+      <c r="I62" s="35"/>
+      <c r="J62" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
+      <c r="L62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
     </row>
     <row r="63">
       <c r="A63" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C63" s="50"/>
+      <c r="D63" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>491</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="H63" s="35">
+      <c r="G63" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="H63" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="37" t="s">
+      <c r="I63" s="35"/>
+      <c r="J63" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L63" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
+      <c r="L63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
     </row>
     <row r="64">
       <c r="A64" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="50"/>
+      <c r="D64" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" s="32" t="s">
         <v>493</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>495</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="H64" s="35">
+      <c r="G64" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H64" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="37" t="s">
+      <c r="I64" s="35"/>
+      <c r="J64" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
+      <c r="L64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
     </row>
     <row r="65">
       <c r="A65" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>497</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>499</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G65" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="H65" s="34">
+        <v>44650.0</v>
+      </c>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="H65" s="35">
-        <v>44650.0</v>
-      </c>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="33" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="F66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="49" t="s">
-        <v>504</v>
-      </c>
-      <c r="H66" s="35">
+      <c r="H66" s="34">
         <v>45093.0</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
     </row>
     <row r="67">
       <c r="A67" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="50"/>
+      <c r="D67" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" s="32" t="s">
         <v>505</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>507</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="H67" s="35">
+      <c r="G67" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="H67" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="37" t="s">
+      <c r="I67" s="35"/>
+      <c r="J67" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L67" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
+      <c r="L67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
     </row>
     <row r="68">
       <c r="A68" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>509</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>511</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="H68" s="35">
+      <c r="G68" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="H68" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="37" t="s">
+      <c r="I68" s="35"/>
+      <c r="J68" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L68" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
+      <c r="L68" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
     </row>
     <row r="69">
       <c r="A69" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" s="50"/>
+      <c r="D69" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="32" t="s">
         <v>513</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>515</v>
       </c>
       <c r="F69" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="H69" s="35">
+      <c r="G69" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="37" t="s">
+      <c r="I69" s="35"/>
+      <c r="J69" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L69" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
+      <c r="L69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
     </row>
     <row r="70">
       <c r="A70" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C70" s="50"/>
+      <c r="D70" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="32" t="s">
         <v>517</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>519</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="34" t="s">
-        <v>520</v>
-      </c>
-      <c r="H70" s="35">
+      <c r="G70" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="H70" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="37" t="s">
+      <c r="I70" s="35"/>
+      <c r="J70" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L70" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
+      <c r="L70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
     </row>
     <row r="71">
       <c r="A71" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C71" s="50"/>
+      <c r="D71" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>521</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>523</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="H71" s="35">
+      <c r="G71" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="H71" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="37" t="s">
+      <c r="I71" s="35"/>
+      <c r="J71" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L71" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
+      <c r="L71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
     </row>
     <row r="72">
       <c r="A72" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C72" s="50"/>
+      <c r="D72" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="32" t="s">
         <v>525</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>527</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>528</v>
-      </c>
-      <c r="H72" s="35">
+      <c r="G72" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="H72" s="34">
         <v>44650.0</v>
       </c>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="37" t="s">
+      <c r="I72" s="35"/>
+      <c r="J72" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
+      <c r="L72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:X72">
